--- a/data/trans_orig/P6705-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>20537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13339</v>
+        <v>13643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29298</v>
+        <v>29608</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2512575301297486</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1631951051973116</v>
+        <v>0.1669098607121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3584480127482231</v>
+        <v>0.3622306084161953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -764,19 +764,19 @@
         <v>18077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11329</v>
+        <v>10832</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26386</v>
+        <v>25646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2058876751283225</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1290279466336124</v>
+        <v>0.1233711945908529</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3005202571286926</v>
+        <v>0.2920901207840971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -785,19 +785,19 @@
         <v>38614</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28990</v>
+        <v>28008</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50122</v>
+        <v>50526</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2277612243695014</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1709944408527707</v>
+        <v>0.1652031522615529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2956366465523864</v>
+        <v>0.2980191751762961</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>10589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5634</v>
+        <v>5640</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17474</v>
+        <v>17687</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1295479566376452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06893405832825711</v>
+        <v>0.06899946003810703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2137867206074459</v>
+        <v>0.2163926978110132</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -835,19 +835,19 @@
         <v>18154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11381</v>
+        <v>11140</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26013</v>
+        <v>25407</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2067610030048109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1296265639317701</v>
+        <v>0.1268761253236464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2962761041191777</v>
+        <v>0.289368738567993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -856,19 +856,19 @@
         <v>28743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19901</v>
+        <v>19864</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38632</v>
+        <v>40628</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1695353303258803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1173856611394262</v>
+        <v>0.1171640746816075</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2278659759776379</v>
+        <v>0.2396420047773086</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>21919</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14298</v>
+        <v>14122</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32213</v>
+        <v>30281</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2681624010253649</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1749303380333997</v>
+        <v>0.1727681405794263</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3941070639280502</v>
+        <v>0.3704725509396561</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -906,19 +906,19 @@
         <v>15400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9485</v>
+        <v>9003</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23490</v>
+        <v>22945</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1753986598585557</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1080259432962403</v>
+        <v>0.1025380336420765</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2675425022993882</v>
+        <v>0.2613258732314874</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -927,19 +927,19 @@
         <v>37319</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27809</v>
+        <v>27175</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50605</v>
+        <v>49628</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2201215768734855</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1640268273532637</v>
+        <v>0.1602896657296723</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2984864397494069</v>
+        <v>0.2927228081385748</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>15704</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8899</v>
+        <v>8979</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25626</v>
+        <v>25960</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1921250218537132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1088710482790832</v>
+        <v>0.1098537142519598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3135224726776147</v>
+        <v>0.3176013828915392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -977,19 +977,19 @@
         <v>18839</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12011</v>
+        <v>11986</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27127</v>
+        <v>27426</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2145647902491889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1368009444123686</v>
+        <v>0.1365154462404202</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3089652041203087</v>
+        <v>0.3123602163880725</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -998,19 +998,19 @@
         <v>34543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23825</v>
+        <v>25718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46725</v>
+        <v>47302</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2037462108434654</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1405269643095782</v>
+        <v>0.1516951226093857</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2755998039767147</v>
+        <v>0.2790037819654809</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>12989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7651</v>
+        <v>7656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21560</v>
+        <v>21856</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1589070903535282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09359948038313402</v>
+        <v>0.09367012102909242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2637757289242932</v>
+        <v>0.2673886256138702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1048,19 +1048,19 @@
         <v>17331</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10487</v>
+        <v>10563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24818</v>
+        <v>25843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.197387871759122</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1194368261305193</v>
+        <v>0.1203038872488155</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2826647518310741</v>
+        <v>0.2943324940519196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -1069,19 +1069,19 @@
         <v>30319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20708</v>
+        <v>21700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40629</v>
+        <v>41416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1788356575876674</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1221415623452459</v>
+        <v>0.1279956561924963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2396433865411314</v>
+        <v>0.2442866134298914</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>77433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63671</v>
+        <v>61500</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94074</v>
+        <v>94131</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2027838377419477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1667438801155485</v>
+        <v>0.161059571112623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2463639095136242</v>
+        <v>0.2465155976685225</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1194,19 +1194,19 @@
         <v>59813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45576</v>
+        <v>47098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74472</v>
+        <v>75217</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2157818372272977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1644187885148102</v>
+        <v>0.1699104951920596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2686642622486558</v>
+        <v>0.2713520670761319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -1215,19 +1215,19 @@
         <v>137246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117555</v>
+        <v>115940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158692</v>
+        <v>158966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2082507970561727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1783724802933079</v>
+        <v>0.1759231780287709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2407933525053711</v>
+        <v>0.2412088921043186</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>57232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44943</v>
+        <v>45442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72260</v>
+        <v>72469</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1498818554475064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.117698626317992</v>
+        <v>0.1190056289271718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1892373363150462</v>
+        <v>0.1897843428101832</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1265,19 +1265,19 @@
         <v>37495</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26683</v>
+        <v>27226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49824</v>
+        <v>50099</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1352667702848911</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09626062929966191</v>
+        <v>0.0982211522932558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1797445963143403</v>
+        <v>0.1807389055468066</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -1286,19 +1286,19 @@
         <v>94727</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76580</v>
+        <v>76890</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>112415</v>
+        <v>114848</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1437347498065186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1161987119860494</v>
+        <v>0.1166696399724713</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1705742834881248</v>
+        <v>0.1742654170290169</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>112823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95615</v>
+        <v>95432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133299</v>
+        <v>131756</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2954652749730179</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2504010664891242</v>
+        <v>0.2499207300817272</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3490879009058818</v>
+        <v>0.3450470571976401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>77</v>
@@ -1336,19 +1336,19 @@
         <v>83425</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68904</v>
+        <v>66977</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>98837</v>
+        <v>101800</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3009636480691756</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2485779847919025</v>
+        <v>0.2416249597081246</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3565650454132079</v>
+        <v>0.3672533009170311</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>186</v>
@@ -1357,19 +1357,19 @@
         <v>196248</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>172213</v>
+        <v>173809</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>221812</v>
+        <v>221108</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2977778910063547</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2613085550745575</v>
+        <v>0.2637299167123344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3365689904439556</v>
+        <v>0.3354998610898538</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>54077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41048</v>
+        <v>41827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69862</v>
+        <v>69081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.141619724381682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1074971297968105</v>
+        <v>0.1095390982338935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.182958474026155</v>
+        <v>0.1809115650821606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -1407,19 +1407,19 @@
         <v>48756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37769</v>
+        <v>37046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65440</v>
+        <v>62384</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1758929130675855</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1362543700747882</v>
+        <v>0.1336456385037492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2360818376719128</v>
+        <v>0.2250569320994166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -1428,19 +1428,19 @@
         <v>102833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85904</v>
+        <v>84276</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123407</v>
+        <v>122078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1560350294696516</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1303471856582555</v>
+        <v>0.1278773008386709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1872530897563034</v>
+        <v>0.1852359407002349</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>80283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64155</v>
+        <v>65366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98927</v>
+        <v>98928</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2102493074558459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1680121296509399</v>
+        <v>0.1711840290813024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.259075370198028</v>
+        <v>0.2590780209739674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1478,19 +1478,19 @@
         <v>47703</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36441</v>
+        <v>35714</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62737</v>
+        <v>61593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1720948313510501</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1314634778463358</v>
+        <v>0.1288432161845158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2263317538452607</v>
+        <v>0.2222041210008761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -1499,19 +1499,19 @@
         <v>127987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>110090</v>
+        <v>107438</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>150959</v>
+        <v>150999</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1942015326613023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1670460744787639</v>
+        <v>0.1630221705014414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2290588194243771</v>
+        <v>0.2291188977318945</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>71279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57793</v>
+        <v>55065</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89003</v>
+        <v>86654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1687513851399003</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1368229328122677</v>
+        <v>0.1303660730401075</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2107133873641432</v>
+        <v>0.2051508943925875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -1624,19 +1624,19 @@
         <v>56594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43943</v>
+        <v>44186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72078</v>
+        <v>71972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1993891894187337</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1548189585300628</v>
+        <v>0.1556750015536612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2539438591983678</v>
+        <v>0.2535705182110358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -1645,19 +1645,19 @@
         <v>127873</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107635</v>
+        <v>106122</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>149946</v>
+        <v>148037</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1810648757446809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1524088785147454</v>
+        <v>0.1502664145970346</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2123210119704189</v>
+        <v>0.2096173871509375</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>64314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51420</v>
+        <v>51298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81732</v>
+        <v>81685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1522627150529782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1217359276327765</v>
+        <v>0.1214473422472653</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.193499757314375</v>
+        <v>0.1933884086589135</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1695,19 +1695,19 @@
         <v>53514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41290</v>
+        <v>40900</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68357</v>
+        <v>69390</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1885376132374957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1454717400740141</v>
+        <v>0.1440975612058278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2408328385010128</v>
+        <v>0.2444704937250285</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>113</v>
@@ -1716,19 +1716,19 @@
         <v>117828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98929</v>
+        <v>98151</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140418</v>
+        <v>140024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1668417825970913</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1400816117240233</v>
+        <v>0.1389801417053788</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1988284820450379</v>
+        <v>0.1982713374068569</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>138526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>119578</v>
+        <v>118506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>160130</v>
+        <v>157946</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3279574203028723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2830985430331878</v>
+        <v>0.2805605301028646</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3791055641188513</v>
+        <v>0.3739336482942676</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>72</v>
@@ -1766,19 +1766,19 @@
         <v>73611</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>59399</v>
+        <v>58989</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>90441</v>
+        <v>88269</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2593450134569595</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2092729665925143</v>
+        <v>0.2078267525340523</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.318639820259643</v>
+        <v>0.3109871175547138</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -1787,19 +1787,19 @@
         <v>212137</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>189190</v>
+        <v>186408</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>239744</v>
+        <v>237099</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3003817422490695</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2678893193328437</v>
+        <v>0.2639495435248722</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.339471926702876</v>
+        <v>0.3357269781206778</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>90646</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74543</v>
+        <v>74217</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110613</v>
+        <v>109656</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2146034530765952</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1764792469881215</v>
+        <v>0.1757084236471011</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2618751632620568</v>
+        <v>0.2596073373730401</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1837,19 +1837,19 @@
         <v>43926</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33256</v>
+        <v>32972</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59051</v>
+        <v>57926</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1547588367955096</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1171661303721202</v>
+        <v>0.1161661368707396</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2080470213630084</v>
+        <v>0.2040828681617397</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>126</v>
@@ -1858,19 +1858,19 @@
         <v>134572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114826</v>
+        <v>115840</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156496</v>
+        <v>159816</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1905515949989932</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.162590592660485</v>
+        <v>0.1640276688990353</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2215951784424615</v>
+        <v>0.2262962614229946</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>57625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45066</v>
+        <v>45441</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72880</v>
+        <v>73557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1364250264276539</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1066927314036891</v>
+        <v>0.10758062351415</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1725412742534288</v>
+        <v>0.1741448842110595</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1908,19 +1908,19 @@
         <v>56191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42670</v>
+        <v>43785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71124</v>
+        <v>70815</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1979693470913016</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.150333241655477</v>
+        <v>0.1542605375151376</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2505807981097841</v>
+        <v>0.2494916250482859</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1929,19 +1929,19 @@
         <v>113815</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95574</v>
+        <v>93555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>135972</v>
+        <v>133901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1611600044101651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.135330636439718</v>
+        <v>0.1324717671574294</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1925334728058635</v>
+        <v>0.1896016651602672</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>75993</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60860</v>
+        <v>62022</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92727</v>
+        <v>94769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2072719653660933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1659970890719526</v>
+        <v>0.1691666872077361</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2529129218955085</v>
+        <v>0.25848216523081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -2054,19 +2054,19 @@
         <v>56908</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43715</v>
+        <v>43421</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72877</v>
+        <v>72202</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2525426084003203</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1939961057464588</v>
+        <v>0.1926894519929174</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3234108451798408</v>
+        <v>0.320414258295365</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -2075,19 +2075,19 @@
         <v>132901</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111952</v>
+        <v>112655</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155671</v>
+        <v>156895</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2245046026757797</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1891156761151211</v>
+        <v>0.1903027764480643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2629676235219191</v>
+        <v>0.2650366711515579</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>59098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47212</v>
+        <v>45738</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75685</v>
+        <v>74512</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1611896447411245</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1287723835099074</v>
+        <v>0.1247514226282505</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2064312009303724</v>
+        <v>0.2032308484688079</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2125,19 +2125,19 @@
         <v>33756</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23793</v>
+        <v>23821</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46299</v>
+        <v>46640</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1498005624013415</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1055866141568017</v>
+        <v>0.1057098594629396</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2054645042606265</v>
+        <v>0.2069745588144493</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>83</v>
@@ -2146,19 +2146,19 @@
         <v>92854</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>76833</v>
+        <v>75029</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>113962</v>
+        <v>113811</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1568542982097477</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1297910775202333</v>
+        <v>0.1267437504587064</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1925117694878409</v>
+        <v>0.1922558945755506</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>93988</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77795</v>
+        <v>77706</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114296</v>
+        <v>113150</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2563540135881152</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2121856155528436</v>
+        <v>0.2119424208244284</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3117427699186593</v>
+        <v>0.3086189216241157</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -2196,19 +2196,19 @@
         <v>49438</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37069</v>
+        <v>37198</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62020</v>
+        <v>65665</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2193918363805193</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1645045500693516</v>
+        <v>0.1650746706493544</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2752287426865436</v>
+        <v>0.2914043503092704</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>123</v>
@@ -2217,19 +2217,19 @@
         <v>143426</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>121468</v>
+        <v>122602</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>167842</v>
+        <v>166661</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2422840611575017</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2051912597745927</v>
+        <v>0.2071058429732262</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2835287291427012</v>
+        <v>0.2815336061364495</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>84133</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67716</v>
+        <v>68768</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>101998</v>
+        <v>103339</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2294739993239009</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1846953253004325</v>
+        <v>0.1875657556233506</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2781992157593768</v>
+        <v>0.2818570291330506</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -2267,19 +2267,19 @@
         <v>45624</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33074</v>
+        <v>32502</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60251</v>
+        <v>60290</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.202469142780564</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1467724126710987</v>
+        <v>0.1442338497434024</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2673766103995844</v>
+        <v>0.2675516804202089</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>113</v>
@@ -2288,19 +2288,19 @@
         <v>129758</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108535</v>
+        <v>107301</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>151831</v>
+        <v>152474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2191943817346479</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1833438652428808</v>
+        <v>0.1812585764794321</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.256481690579652</v>
+        <v>0.2575672168094068</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>53423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41059</v>
+        <v>40405</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>69095</v>
+        <v>68939</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1457103769807661</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1119895603337159</v>
+        <v>0.1102058514294412</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1884558501129923</v>
+        <v>0.1880304274566429</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -2338,19 +2338,19 @@
         <v>39614</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29678</v>
+        <v>28696</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53224</v>
+        <v>53113</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1757958500372548</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1317020946879456</v>
+        <v>0.127343207379512</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2361957712495086</v>
+        <v>0.2357031106934833</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>82</v>
@@ -2359,19 +2359,19 @@
         <v>93037</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>73541</v>
+        <v>76269</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114889</v>
+        <v>114883</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.157162656222323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1242293809504429</v>
+        <v>0.1288383952203355</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1940775881060071</v>
+        <v>0.1940662273299091</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>31253</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21830</v>
+        <v>21170</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42896</v>
+        <v>40855</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1986202480612136</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1387367672400211</v>
+        <v>0.1345397579844494</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2726165779772953</v>
+        <v>0.2596419998662163</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2484,19 +2484,19 @@
         <v>16672</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10001</v>
+        <v>9717</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25192</v>
+        <v>25084</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2392328695453391</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1435016906613751</v>
+        <v>0.1394231968726518</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3614744482722342</v>
+        <v>0.3599316809804874</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>44</v>
@@ -2505,19 +2505,19 @@
         <v>47925</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36058</v>
+        <v>37026</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>61780</v>
+        <v>62263</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.211086327067233</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1588164958618505</v>
+        <v>0.163082159177827</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2721102203048807</v>
+        <v>0.2742359875228713</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>24352</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16416</v>
+        <v>15835</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34359</v>
+        <v>34545</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1547634656579616</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1043261524447399</v>
+        <v>0.1006358363623683</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2183590259027166</v>
+        <v>0.2195436644103142</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2555,19 +2555,19 @@
         <v>11300</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6155</v>
+        <v>6089</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18798</v>
+        <v>18722</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1621385838616389</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08832104650029671</v>
+        <v>0.08737052470766198</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2697352175649474</v>
+        <v>0.2686387937978803</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -2576,19 +2576,19 @@
         <v>35652</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>25416</v>
+        <v>25223</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47118</v>
+        <v>48629</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1570272645176759</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1119435056704268</v>
+        <v>0.1110958214869031</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.207528597209433</v>
+        <v>0.2141860529767933</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>41676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30848</v>
+        <v>31122</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53784</v>
+        <v>53991</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2648607000616964</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1960426215043467</v>
+        <v>0.1977862415648533</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3418086340726028</v>
+        <v>0.3431270602045786</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -2626,19 +2626,19 @@
         <v>19827</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12014</v>
+        <v>12455</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28196</v>
+        <v>29695</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2844938203880124</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1723885189813273</v>
+        <v>0.1787195767042655</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4045837893600674</v>
+        <v>0.4260961237548407</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -2647,19 +2647,19 @@
         <v>61502</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48498</v>
+        <v>46831</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>77386</v>
+        <v>75785</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2708871031890643</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2136077006963605</v>
+        <v>0.2062666821514984</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3408455710293254</v>
+        <v>0.3337959642826533</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>32208</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21968</v>
+        <v>23958</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43531</v>
+        <v>43910</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.204686580179474</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1396142989893899</v>
+        <v>0.1522592194825727</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2766463221614655</v>
+        <v>0.2790562960134508</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2697,19 +2697,19 @@
         <v>12596</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6370</v>
+        <v>7080</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20022</v>
+        <v>20390</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1807429477857364</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09140488357122897</v>
+        <v>0.1015877578370541</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2872999446159716</v>
+        <v>0.2925736783808246</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -2718,19 +2718,19 @@
         <v>44804</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>33169</v>
+        <v>33470</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>59201</v>
+        <v>58843</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1973370616750335</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1460924541841176</v>
+        <v>0.1474184596316163</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2607500698614876</v>
+        <v>0.2591734368392287</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>27862</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18711</v>
+        <v>19436</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38481</v>
+        <v>38696</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1770690060396544</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1189131191281489</v>
+        <v>0.1235212674536171</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2445539333237273</v>
+        <v>0.2459191891105703</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2768,19 +2768,19 @@
         <v>9296</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4139</v>
+        <v>4240</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16228</v>
+        <v>16963</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1333917784192731</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05938593991307404</v>
+        <v>0.06084312408308742</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2328544290423487</v>
+        <v>0.2434056988266136</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -2789,19 +2789,19 @@
         <v>37158</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27437</v>
+        <v>27078</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50866</v>
+        <v>49708</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1636622435509933</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1208452996104402</v>
+        <v>0.1192632281035399</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2240385465110549</v>
+        <v>0.2189387044501553</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>276495</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>244606</v>
+        <v>245949</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>308871</v>
+        <v>305941</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1961010208820606</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1734843918783042</v>
+        <v>0.1744368165508461</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.219063972770912</v>
+        <v>0.2169855510764916</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>190</v>
@@ -2914,19 +2914,19 @@
         <v>208064</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>182461</v>
+        <v>184101</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>236863</v>
+        <v>238121</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2204398076543127</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1933134663888933</v>
+        <v>0.1950518480030874</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2509516952175451</v>
+        <v>0.2522841503532542</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>449</v>
@@ -2935,19 +2935,19 @@
         <v>484559</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>443954</v>
+        <v>447365</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>529947</v>
+        <v>525799</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2058606434059961</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1886099857857669</v>
+        <v>0.1900589975682599</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2251434956705248</v>
+        <v>0.2233812442609081</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>215585</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>188928</v>
+        <v>186583</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>246001</v>
+        <v>245443</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1529015018498053</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1339951427391859</v>
+        <v>0.1323321361888522</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1744738436266584</v>
+        <v>0.1740777497969824</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>146</v>
@@ -2985,19 +2985,19 @@
         <v>154218</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>129353</v>
+        <v>131381</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>177505</v>
+        <v>177962</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.163390845408196</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1370465076977694</v>
+        <v>0.139195724455018</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1880630535865901</v>
+        <v>0.18854746599566</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>353</v>
@@ -3006,19 +3006,19 @@
         <v>369803</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>333681</v>
+        <v>333523</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>407462</v>
+        <v>408252</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1571076290742929</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1417612692445028</v>
+        <v>0.1416942771213269</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1731065174269587</v>
+        <v>0.1734423663739009</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>408932</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>373390</v>
+        <v>374674</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>450019</v>
+        <v>447857</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2900307023689535</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2648232866992892</v>
+        <v>0.2657339201280804</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3191716454566498</v>
+        <v>0.3176382184433587</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>224</v>
@@ -3056,19 +3056,19 @@
         <v>241700</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>213387</v>
+        <v>213859</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>268880</v>
+        <v>270484</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2560769113828713</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2260789014358154</v>
+        <v>0.2265795885306295</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2848728373364358</v>
+        <v>0.2865725214359091</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>606</v>
@@ -3077,19 +3077,19 @@
         <v>650632</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>598873</v>
+        <v>605485</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>691688</v>
+        <v>696998</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.276415554400339</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2544261837603954</v>
+        <v>0.2572350152672445</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2938574438405032</v>
+        <v>0.2961136842509737</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>276768</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>245109</v>
+        <v>246936</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>311032</v>
+        <v>315077</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1962949002491045</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1738409405232672</v>
+        <v>0.1751371893146262</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2205963672221125</v>
+        <v>0.2234652089398518</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>154</v>
@@ -3127,19 +3127,19 @@
         <v>169742</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>145844</v>
+        <v>145331</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>199235</v>
+        <v>196995</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1798379055202459</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.154518661874893</v>
+        <v>0.1539748867195928</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2110859198669851</v>
+        <v>0.2087125695598117</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>410</v>
@@ -3148,19 +3148,19 @@
         <v>446510</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>409081</v>
+        <v>406878</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>492724</v>
+        <v>486054</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1896958015374477</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1737947147253486</v>
+        <v>0.1728584401366932</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2093293556938581</v>
+        <v>0.2064960291773962</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>232181</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>205078</v>
+        <v>204046</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>262645</v>
+        <v>262018</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1646718746500763</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1454498239288922</v>
+        <v>0.1447172968201867</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1862784917986161</v>
+        <v>0.1858337396429844</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>157</v>
@@ -3198,19 +3198,19 @@
         <v>170135</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>148173</v>
+        <v>147915</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>195796</v>
+        <v>195775</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1802545300343741</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1569861365378047</v>
+        <v>0.1567126381135409</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2074419111539395</v>
+        <v>0.207419589960396</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>376</v>
@@ -3219,19 +3219,19 @@
         <v>402316</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>367083</v>
+        <v>366015</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>439441</v>
+        <v>441290</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1709203715819242</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1559520374261303</v>
+        <v>0.1554984130301772</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1866926751750022</v>
+        <v>0.1874783266031372</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>21310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13442</v>
+        <v>14240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30188</v>
+        <v>30581</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2693755620927813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1699161423141775</v>
+        <v>0.1800002455217916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3815976436805404</v>
+        <v>0.3865687040059514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3585,19 +3585,19 @@
         <v>23448</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16598</v>
+        <v>16476</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32917</v>
+        <v>32278</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2552669493288813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1807000470601725</v>
+        <v>0.179373824116441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.358355070017011</v>
+        <v>0.3514008652524893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -3606,19 +3606,19 @@
         <v>44758</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33762</v>
+        <v>34157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56045</v>
+        <v>58017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2617953465380502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1974806389245604</v>
+        <v>0.1997906110910352</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3278173151363099</v>
+        <v>0.3393542160542218</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>20314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13028</v>
+        <v>13202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28498</v>
+        <v>29348</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2567908506303586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1646779391907811</v>
+        <v>0.1668836319307376</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3602346115669593</v>
+        <v>0.3709822843805946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -3656,19 +3656,19 @@
         <v>15167</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9347</v>
+        <v>9358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22139</v>
+        <v>22515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1651234038188589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1017607802958603</v>
+        <v>0.1018804963538939</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2410253459142797</v>
+        <v>0.2451158044002527</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -3677,19 +3677,19 @@
         <v>35482</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25688</v>
+        <v>25745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46055</v>
+        <v>47262</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2075401540657067</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1502559328576249</v>
+        <v>0.1505897913339619</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.269386227960863</v>
+        <v>0.2764466866081097</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>20812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13791</v>
+        <v>13888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29548</v>
+        <v>28735</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2630863082974054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1743307323968965</v>
+        <v>0.1755611946205076</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3735082735947197</v>
+        <v>0.3632278850153901</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -3727,19 +3727,19 @@
         <v>33919</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24820</v>
+        <v>25598</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43005</v>
+        <v>43019</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3692653590706921</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.270209937156284</v>
+        <v>0.2786745348945347</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4681831182009938</v>
+        <v>0.4683373342286935</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -3748,19 +3748,19 @@
         <v>54731</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43683</v>
+        <v>41188</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67897</v>
+        <v>66724</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3201337378163203</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2555124778290098</v>
+        <v>0.2409166813886197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3971417470134184</v>
+        <v>0.390280092470408</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>11090</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6027</v>
+        <v>5733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18486</v>
+        <v>18378</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1401921177729604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07618716734229591</v>
+        <v>0.07247394654153785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2336838864892835</v>
+        <v>0.2323096074764369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3798,19 +3798,19 @@
         <v>12434</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6896</v>
+        <v>6759</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20422</v>
+        <v>19333</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1353678375580424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07507387184408004</v>
+        <v>0.07358274650207879</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2223283452662834</v>
+        <v>0.2104733892130502</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3819,19 +3819,19 @@
         <v>23525</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15117</v>
+        <v>14417</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33849</v>
+        <v>34020</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1376001489849961</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08842117761215683</v>
+        <v>0.0843250616779235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1979915825756127</v>
+        <v>0.1989900797277675</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>5582</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11446</v>
+        <v>11740</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07055516120649437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0265227270801587</v>
+        <v>0.02654801617641175</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1446808257167654</v>
+        <v>0.1483997073962888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -3869,19 +3869,19 @@
         <v>6887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3043</v>
+        <v>2995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12945</v>
+        <v>13800</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07497645022352528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03312801817509813</v>
+        <v>0.03261080648780995</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1409266151123727</v>
+        <v>0.1502407596832838</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -3890,19 +3890,19 @@
         <v>12469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6554</v>
+        <v>6355</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20477</v>
+        <v>20806</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07293061259492663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03833344451317064</v>
+        <v>0.03717339051249416</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1197753943661557</v>
+        <v>0.1216985623564534</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>76381</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61691</v>
+        <v>62498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93463</v>
+        <v>95761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2219173488907797</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1792381257021796</v>
+        <v>0.1815811851895192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2715478890761552</v>
+        <v>0.2782251784358368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -4015,19 +4015,19 @@
         <v>57648</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45613</v>
+        <v>44598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72093</v>
+        <v>71102</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2106120933806157</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1666431344583174</v>
+        <v>0.1629350178572461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2633873616624984</v>
+        <v>0.2597663953162244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -4036,19 +4036,19 @@
         <v>134029</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115245</v>
+        <v>115293</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156593</v>
+        <v>156783</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2169093791581872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1865106693911024</v>
+        <v>0.1865885741656362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2534274179675395</v>
+        <v>0.2537337001180204</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>79575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63588</v>
+        <v>64660</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95892</v>
+        <v>95282</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2311971994739252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1847505071519063</v>
+        <v>0.1878644124393003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2786073176265726</v>
+        <v>0.276834101787964</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -4086,19 +4086,19 @@
         <v>58915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47197</v>
+        <v>46132</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73584</v>
+        <v>72407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2152396871736429</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1724308537267821</v>
+        <v>0.1685397799944097</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2688322267394367</v>
+        <v>0.2645330593569686</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -4107,19 +4107,19 @@
         <v>138489</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>117591</v>
+        <v>118582</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>160663</v>
+        <v>161155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2241283863422415</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1903065274998428</v>
+        <v>0.1919114058878412</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2600133840928556</v>
+        <v>0.2608104608975558</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>92102</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76259</v>
+        <v>75881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109597</v>
+        <v>108407</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2675938668820404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2215649993041296</v>
+        <v>0.2204666578426118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3184257910462709</v>
+        <v>0.3149686799640765</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -4157,19 +4157,19 @@
         <v>67815</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55469</v>
+        <v>53653</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82176</v>
+        <v>82466</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.247755866060024</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.202650268425547</v>
+        <v>0.1960185069181979</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3002252029293043</v>
+        <v>0.3012837844883995</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>158</v>
@@ -4178,19 +4178,19 @@
         <v>159917</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>137996</v>
+        <v>137153</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>180716</v>
+        <v>182589</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2588060860501534</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2233298450020484</v>
+        <v>0.2219660261613813</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2924664354827194</v>
+        <v>0.2954980812013007</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>62604</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49555</v>
+        <v>49797</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78763</v>
+        <v>77307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1818906784622956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1439766778860419</v>
+        <v>0.1446802071863471</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2288387896490134</v>
+        <v>0.224609048605341</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -4228,19 +4228,19 @@
         <v>54921</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43468</v>
+        <v>42139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67806</v>
+        <v>67756</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2006495765358346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1588056048634142</v>
+        <v>0.1539520378448277</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2477225100742175</v>
+        <v>0.2475398526792676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -4249,19 +4249,19 @@
         <v>117525</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99798</v>
+        <v>98476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137692</v>
+        <v>138345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1902004414468307</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1615104315241039</v>
+        <v>0.159371994775464</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2228380143581226</v>
+        <v>0.2238955096731504</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>33524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24214</v>
+        <v>23740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48661</v>
+        <v>47625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09740090629095909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07035176319937095</v>
+        <v>0.06897371225495381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1413817996744264</v>
+        <v>0.1383707625201333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -4299,19 +4299,19 @@
         <v>34418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24936</v>
+        <v>24010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45642</v>
+        <v>47797</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1257427768498827</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09110309240855438</v>
+        <v>0.08771984062514591</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1667483018895885</v>
+        <v>0.1746224869073042</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -4320,19 +4320,19 @@
         <v>67942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53465</v>
+        <v>52497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84756</v>
+        <v>83428</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1099557070025872</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0865268949719052</v>
+        <v>0.08496001123942712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.137167175515774</v>
+        <v>0.1350182986013421</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>125228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106833</v>
+        <v>107745</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146287</v>
+        <v>145209</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2724787011637472</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2324531844258248</v>
+        <v>0.2344390041075092</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3182992307744433</v>
+        <v>0.3159552753180592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>75</v>
@@ -4445,19 +4445,19 @@
         <v>72992</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60029</v>
+        <v>59101</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88955</v>
+        <v>87494</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2299595655099524</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.189119284869399</v>
+        <v>0.1861943189794003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2802502563292064</v>
+        <v>0.2756453704241234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -4466,19 +4466,19 @@
         <v>198220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176011</v>
+        <v>172249</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>224123</v>
+        <v>221957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2551091642111945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2265261102994037</v>
+        <v>0.2216847389471904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.28844643290293</v>
+        <v>0.2856581025592651</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>71665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55941</v>
+        <v>57004</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89159</v>
+        <v>90732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.155933582680902</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1217199642737903</v>
+        <v>0.1240336630352657</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1939982983091596</v>
+        <v>0.1974194618925696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -4516,19 +4516,19 @@
         <v>57218</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44020</v>
+        <v>44949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71061</v>
+        <v>70701</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1802644128335921</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1386841340726863</v>
+        <v>0.1416092929923122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2238752620617093</v>
+        <v>0.2227402231454272</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -4537,19 +4537,19 @@
         <v>128883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111086</v>
+        <v>108366</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>151664</v>
+        <v>148504</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1658729957692703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1429674015139818</v>
+        <v>0.1394665718788292</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1951913055121978</v>
+        <v>0.191125126322759</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>132395</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>113355</v>
+        <v>111721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>155474</v>
+        <v>150740</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2880741285998388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2466447868518802</v>
+        <v>0.2430901817637975</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3382894237496027</v>
+        <v>0.3279902035040348</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>89</v>
@@ -4587,19 +4587,19 @@
         <v>90044</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74813</v>
+        <v>75064</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107601</v>
+        <v>106414</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2836806258212202</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2356949962528399</v>
+        <v>0.2364851655857138</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3389923159635655</v>
+        <v>0.3352517454856834</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>214</v>
@@ -4608,19 +4608,19 @@
         <v>222439</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>198111</v>
+        <v>198180</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>248220</v>
+        <v>251015</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2862793341457435</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2549686347252488</v>
+        <v>0.2550573347193972</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3194587159380755</v>
+        <v>0.3230563503433942</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>83376</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67892</v>
+        <v>67927</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102030</v>
+        <v>102175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1814138658792726</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1477226066592748</v>
+        <v>0.1478007297261084</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2220035522471095</v>
+        <v>0.2223196224495243</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -4658,19 +4658,19 @@
         <v>55374</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42641</v>
+        <v>42992</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69335</v>
+        <v>70057</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1744543968991947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1343383993076622</v>
+        <v>0.1354439178710055</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2184386146054154</v>
+        <v>0.2207102875278498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -4679,19 +4679,19 @@
         <v>138750</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>117780</v>
+        <v>118327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158344</v>
+        <v>161707</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1785708458657926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1515833892637906</v>
+        <v>0.152286637481222</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2037881013574255</v>
+        <v>0.2081166183076895</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>46924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33680</v>
+        <v>34916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61239</v>
+        <v>61655</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1020997216762395</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07328329634894046</v>
+        <v>0.07597257027390614</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1332474383216981</v>
+        <v>0.13415345473242</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -4729,19 +4729,19 @@
         <v>41785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31554</v>
+        <v>30516</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54953</v>
+        <v>54224</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1316409989360406</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09940848164683845</v>
+        <v>0.09613827147417991</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1731262900737579</v>
+        <v>0.1708309721295181</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -4750,19 +4750,19 @@
         <v>88708</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70554</v>
+        <v>72025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>106727</v>
+        <v>108199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1141676600079992</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09080323392214494</v>
+        <v>0.09269560240241317</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1373570958213242</v>
+        <v>0.1392517086001042</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>90110</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73833</v>
+        <v>74075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108122</v>
+        <v>109989</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2450449349706971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2007815410411787</v>
+        <v>0.2014407941487868</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2940266971908764</v>
+        <v>0.2991049268920157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -4875,19 +4875,19 @@
         <v>57321</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43639</v>
+        <v>44474</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70258</v>
+        <v>71781</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2357727002477433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.179495484040347</v>
+        <v>0.1829314916285799</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2889885886080115</v>
+        <v>0.2952503969710809</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>135</v>
@@ -4896,19 +4896,19 @@
         <v>147430</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>125588</v>
+        <v>124685</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>169111</v>
+        <v>169719</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2413545666498201</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.205597163723458</v>
+        <v>0.204118805803029</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2768465160127004</v>
+        <v>0.2778426113906878</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>70305</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55913</v>
+        <v>55064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>87473</v>
+        <v>87573</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1911872134027854</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.152048749257422</v>
+        <v>0.1497424329823485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2378741484232799</v>
+        <v>0.2381448352748603</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>46</v>
@@ -4946,19 +4946,19 @@
         <v>49207</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36681</v>
+        <v>37750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>62204</v>
+        <v>62864</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2023977717760109</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1508775808498425</v>
+        <v>0.1552731530175318</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2558605158824276</v>
+        <v>0.2585747111434132</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>110</v>
@@ -4967,19 +4967,19 @@
         <v>119511</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>100754</v>
+        <v>101069</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>141806</v>
+        <v>141536</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1956490384876787</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1649412907384176</v>
+        <v>0.1654577454244472</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2321461218944989</v>
+        <v>0.2317045062829246</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>104453</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>88751</v>
+        <v>88581</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>124009</v>
+        <v>124364</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2840497469256941</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2413503272359426</v>
+        <v>0.2408866829646809</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3372302431832654</v>
+        <v>0.3381960896672551</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -5017,19 +5017,19 @@
         <v>58894</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46303</v>
+        <v>45558</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>73252</v>
+        <v>71859</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2422425571164651</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1904543739418674</v>
+        <v>0.1873899130856613</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3013024012906101</v>
+        <v>0.2955723833842194</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>148</v>
@@ -5038,19 +5038,19 @@
         <v>163347</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>139581</v>
+        <v>142022</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>184832</v>
+        <v>187362</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2674104001590581</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2285036497060884</v>
+        <v>0.2325002938361563</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3025828925304027</v>
+        <v>0.3067258273690544</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>58798</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43648</v>
+        <v>44943</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73203</v>
+        <v>73728</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1598949866110997</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1186963837168993</v>
+        <v>0.1222192412291455</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1990689049875857</v>
+        <v>0.2004956861831061</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -5088,19 +5088,19 @@
         <v>42230</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31870</v>
+        <v>32121</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56480</v>
+        <v>55804</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1736998474287479</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1310866149064513</v>
+        <v>0.1321192853126835</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.232315556787507</v>
+        <v>0.2295328964335059</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -5109,19 +5109,19 @@
         <v>101027</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83702</v>
+        <v>83790</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122091</v>
+        <v>120040</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1653893493572723</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1370263801281003</v>
+        <v>0.1371697814277375</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1998719110360454</v>
+        <v>0.1965150293889432</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>44062</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32837</v>
+        <v>33209</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>60360</v>
+        <v>60774</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1198231180897236</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08929812953577825</v>
+        <v>0.09030771259717565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1641434978323899</v>
+        <v>0.165269009675791</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -5159,19 +5159,19 @@
         <v>35468</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24810</v>
+        <v>25141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47473</v>
+        <v>49213</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1458871234310328</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1020480733080498</v>
+        <v>0.103410305958069</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1952663686188773</v>
+        <v>0.2024222871832863</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>69</v>
@@ -5180,19 +5180,19 @@
         <v>79530</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>64841</v>
+        <v>62907</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>100422</v>
+        <v>99052</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1301966453461708</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.106150168590237</v>
+        <v>0.1029837138523542</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1643979258975036</v>
+        <v>0.1621554586288018</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>44160</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33055</v>
+        <v>33261</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>58140</v>
+        <v>57026</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2664629139023148</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.199455360602981</v>
+        <v>0.2007009045024369</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3508171804351919</v>
+        <v>0.3440971051744893</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -5305,19 +5305,19 @@
         <v>18467</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11684</v>
+        <v>11841</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27722</v>
+        <v>27925</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1744184542278731</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1103545751029612</v>
+        <v>0.1118364462879206</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2618296890195732</v>
+        <v>0.2637486768350067</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>56</v>
@@ -5326,19 +5326,19 @@
         <v>62627</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>47713</v>
+        <v>48968</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>78751</v>
+        <v>78098</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2305815724994718</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.175671682936459</v>
+        <v>0.1802923703256714</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2899451353338249</v>
+        <v>0.2875442053114078</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>29652</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19544</v>
+        <v>19943</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41939</v>
+        <v>42100</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1789229341068795</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1179301340448825</v>
+        <v>0.1203348387548471</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2530605942219389</v>
+        <v>0.254036591239768</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -5376,19 +5376,19 @@
         <v>24591</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15786</v>
+        <v>16026</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34300</v>
+        <v>35021</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2322516888518386</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1490930311628902</v>
+        <v>0.1513601621183134</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3239513009900305</v>
+        <v>0.3307634666440171</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -5397,19 +5397,19 @@
         <v>54243</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40266</v>
+        <v>40211</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70149</v>
+        <v>69725</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1997118796051786</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1482522074173799</v>
+        <v>0.1480494879787427</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2582764005474135</v>
+        <v>0.2567155678176356</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>54895</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42461</v>
+        <v>43335</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>68134</v>
+        <v>67728</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3312398789132985</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2562115801895246</v>
+        <v>0.2614877645149239</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4111241362832634</v>
+        <v>0.4086726678317734</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>27</v>
@@ -5447,19 +5447,19 @@
         <v>32577</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23330</v>
+        <v>23394</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>43621</v>
+        <v>43010</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3076806617680118</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.220348766837614</v>
+        <v>0.220949324871774</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4119869929660215</v>
+        <v>0.406223133573932</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>75</v>
@@ -5468,19 +5468,19 @@
         <v>87472</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>71700</v>
+        <v>72476</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>105599</v>
+        <v>104745</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.322055878957585</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2639869354683598</v>
+        <v>0.266845221175191</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3887958302104618</v>
+        <v>0.3856535977464792</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>22081</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14042</v>
+        <v>14383</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33963</v>
+        <v>32470</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1332394676058976</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08472780655389921</v>
+        <v>0.08678580156706663</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2049356249701007</v>
+        <v>0.1959258288983361</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -5518,19 +5518,19 @@
         <v>15334</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9000</v>
+        <v>9051</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>25248</v>
+        <v>24277</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1448240059511581</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08500406343738784</v>
+        <v>0.08548561267962512</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2384633451073417</v>
+        <v>0.2292934586866106</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -5539,19 +5539,19 @@
         <v>37415</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>26793</v>
+        <v>26393</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>52176</v>
+        <v>49979</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1377554240994315</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09864622011463546</v>
+        <v>0.09717280302608794</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1921006881132658</v>
+        <v>0.1840134237058653</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>14938</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8498</v>
+        <v>8245</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23851</v>
+        <v>24458</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09013480547160961</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05127967657288731</v>
+        <v>0.04975031045740711</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1439157454370708</v>
+        <v>0.1475810046677231</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -5589,19 +5589,19 @@
         <v>14910</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8630</v>
+        <v>8488</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24749</v>
+        <v>23885</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1408251892011184</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08151026261662042</v>
+        <v>0.08016764325351644</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2337453371072527</v>
+        <v>0.2255919823829509</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -5610,19 +5610,19 @@
         <v>29848</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19418</v>
+        <v>19749</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>42525</v>
+        <v>42212</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.109895244838333</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07149399649849748</v>
+        <v>0.07271183374651927</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1565701414201312</v>
+        <v>0.1554151746290014</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>357189</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>322233</v>
+        <v>326669</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>390320</v>
+        <v>391788</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2521917856681907</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2275115083566052</v>
+        <v>0.2306436437846711</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2755843801384753</v>
+        <v>0.2766205311437702</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>227</v>
@@ -5735,19 +5735,19 @@
         <v>229876</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>203020</v>
+        <v>202599</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>258199</v>
+        <v>255653</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2227516307356379</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1967286263702413</v>
+        <v>0.1963201634827246</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2501974174830253</v>
+        <v>0.2477305624134203</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>564</v>
@@ -5756,19 +5756,19 @@
         <v>587064</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>547542</v>
+        <v>539193</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>630699</v>
+        <v>632414</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2397825748073449</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2236400169943355</v>
+        <v>0.2202300521115974</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2576048182955249</v>
+        <v>0.2583056584720533</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>271512</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>238461</v>
+        <v>240354</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>303970</v>
+        <v>299573</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1916998417044742</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1683648667115078</v>
+        <v>0.1697013546258677</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2146167217130201</v>
+        <v>0.2115125195104467</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>203</v>
@@ -5806,19 +5806,19 @@
         <v>205098</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>182169</v>
+        <v>180349</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>232977</v>
+        <v>232086</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1987413809722018</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1765234960304075</v>
+        <v>0.1747597664135346</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2257571769721049</v>
+        <v>0.2248931676999178</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>454</v>
@@ -5827,19 +5827,19 @@
         <v>476609</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>438287</v>
+        <v>438596</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>516560</v>
+        <v>518658</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1946678948875618</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.179015538559769</v>
+        <v>0.1791419602347659</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.210985543106818</v>
+        <v>0.2118427046412655</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>404658</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>369607</v>
+        <v>369481</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>439581</v>
+        <v>440828</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2857074919349905</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2609599996603074</v>
+        <v>0.2608705096464542</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3103646514609947</v>
+        <v>0.3112453928019345</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>274</v>
@@ -5877,19 +5877,19 @@
         <v>283248</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>253154</v>
+        <v>256018</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>314857</v>
+        <v>315403</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2744701302111515</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2453083367061004</v>
+        <v>0.2480841633494416</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3050988944425657</v>
+        <v>0.3056282430447622</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>648</v>
@@ -5898,19 +5898,19 @@
         <v>687906</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>638376</v>
+        <v>642671</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>733359</v>
+        <v>733287</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2809708731410274</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2607408076367366</v>
+        <v>0.262494728619089</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2995360347769122</v>
+        <v>0.299506496207687</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>237949</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>208553</v>
+        <v>208412</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>266276</v>
+        <v>265474</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1680033765619127</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1472478819131961</v>
+        <v>0.1471484184092809</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1880034383414646</v>
+        <v>0.187436811765973</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>178</v>
@@ -5948,19 +5948,19 @@
         <v>180293</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154694</v>
+        <v>158580</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>204434</v>
+        <v>204489</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1747054507414608</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1498996378767116</v>
+        <v>0.1536654362906821</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.198098616574451</v>
+        <v>0.1981514662016123</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>404</v>
@@ -5969,19 +5969,19 @@
         <v>418242</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>380840</v>
+        <v>382918</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>454561</v>
+        <v>454167</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1708283430707364</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1555518033693204</v>
+        <v>0.1564005071777796</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1856623864572654</v>
+        <v>0.1855014926503068</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>145029</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>121642</v>
+        <v>122676</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>169284</v>
+        <v>172111</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1023975041304319</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08588499092513473</v>
+        <v>0.08661503810342275</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1195222941607013</v>
+        <v>0.1215183508517203</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>126</v>
@@ -6019,19 +6019,19 @@
         <v>133468</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>113329</v>
+        <v>113602</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>157800</v>
+        <v>155509</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.129331407339548</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1098169360642381</v>
+        <v>0.1100813845252315</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1529096103380846</v>
+        <v>0.1506893079752398</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>255</v>
@@ -6040,19 +6040,19 @@
         <v>278497</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>249050</v>
+        <v>246952</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>312947</v>
+        <v>314183</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1137503140933295</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1017229450324154</v>
+        <v>0.10086594134626</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1278210992309096</v>
+        <v>0.1283260618395497</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>9384</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2102</v>
+        <v>2565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19675</v>
+        <v>19563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3116970535817253</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06982067959373406</v>
+        <v>0.08519628158862765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6535467998517666</v>
+        <v>0.6498161916084808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -6406,19 +6406,19 @@
         <v>10320</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4445</v>
+        <v>4413</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17812</v>
+        <v>17782</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3663744771489363</v>
+        <v>0.3663744771489362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1578190959514517</v>
+        <v>0.1566633501597921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6323583299581562</v>
+        <v>0.6313142525921136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6427,19 +6427,19 @@
         <v>19703</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9320</v>
+        <v>10160</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31530</v>
+        <v>33145</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3381265723589243</v>
+        <v>0.3381265723589244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1599387579613956</v>
+        <v>0.1743598635426383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5410964998523898</v>
+        <v>0.5688083882920746</v>
       </c>
     </row>
     <row r="5">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18060</v>
+        <v>16315</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2173595002295538</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5999105922743122</v>
+        <v>0.5419447202671167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -6477,19 +6477,19 @@
         <v>4473</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1053</v>
+        <v>1012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11071</v>
+        <v>11360</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1588191095555231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03737892346801039</v>
+        <v>0.03594115430018588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3930480463531079</v>
+        <v>0.4033126894535679</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -6498,19 +6498,19 @@
         <v>11017</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4165</v>
+        <v>3500</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23984</v>
+        <v>23479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1890627325034372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07148257565107886</v>
+        <v>0.06006186016254324</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4116017406200077</v>
+        <v>0.4029333959593809</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>6398</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1422</v>
+        <v>1281</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14059</v>
+        <v>13880</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2125088359827231</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04722525532148849</v>
+        <v>0.042565686114794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4669872376931622</v>
+        <v>0.4610524624637399</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -6548,19 +6548,19 @@
         <v>8924</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3709</v>
+        <v>4082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15737</v>
+        <v>15097</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3168225991632006</v>
+        <v>0.3168225991632005</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1316964712473106</v>
+        <v>0.1449299287622293</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5586962960735177</v>
+        <v>0.5359987825022479</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -6569,19 +6569,19 @@
         <v>15321</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7878</v>
+        <v>7601</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25320</v>
+        <v>25362</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2629311562537173</v>
+        <v>0.2629311562537174</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1351995714921758</v>
+        <v>0.1304470460714537</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4345272983634664</v>
+        <v>0.4352406705562517</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>7780</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2294</v>
+        <v>2320</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17156</v>
+        <v>17000</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2584346102059977</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07620098652772946</v>
+        <v>0.07707290698929817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5698754779759161</v>
+        <v>0.564691000622586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -6619,19 +6619,19 @@
         <v>4450</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>983</v>
+        <v>1037</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11912</v>
+        <v>11542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1579838141323401</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03490550088046535</v>
+        <v>0.03681615690046273</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4229134969036122</v>
+        <v>0.4097616040616441</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -6640,19 +6640,19 @@
         <v>12230</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5240</v>
+        <v>5135</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22956</v>
+        <v>23046</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2098795388839211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08992831011631459</v>
+        <v>0.08812782523401903</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3939598707987849</v>
+        <v>0.3954933449884347</v>
       </c>
     </row>
     <row r="8">
@@ -6791,19 +6791,19 @@
         <v>29732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17878</v>
+        <v>19049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44403</v>
+        <v>44777</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2508190295073082</v>
+        <v>0.2508190295073083</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1508197335910292</v>
+        <v>0.1606951560859785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3745827116050418</v>
+        <v>0.3777361000161161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -6812,19 +6812,19 @@
         <v>31195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21063</v>
+        <v>21547</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41370</v>
+        <v>41956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3333586251348816</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2250856859241937</v>
+        <v>0.2302581819702228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4420836384613397</v>
+        <v>0.4483445033239161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -6833,19 +6833,19 @@
         <v>60928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46565</v>
+        <v>46087</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78566</v>
+        <v>79050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2872323861171248</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2195196587609891</v>
+        <v>0.2172687555469819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3703865339834725</v>
+        <v>0.3726683385774528</v>
       </c>
     </row>
     <row r="11">
@@ -6862,19 +6862,19 @@
         <v>22911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12728</v>
+        <v>12978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36731</v>
+        <v>35430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1932754425316512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1073728996063537</v>
+        <v>0.1094781356349398</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3098559268934414</v>
+        <v>0.2988822870521393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6883,19 +6883,19 @@
         <v>14055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7997</v>
+        <v>8584</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21728</v>
+        <v>21973</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1501951516366986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08545592633802476</v>
+        <v>0.091732224653873</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2321903698637765</v>
+        <v>0.2348042135421858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -6904,19 +6904,19 @@
         <v>36966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24961</v>
+        <v>24778</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51118</v>
+        <v>52142</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1742700429620839</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1176730801882727</v>
+        <v>0.116809724115475</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2409883774846351</v>
+        <v>0.2458135160232139</v>
       </c>
     </row>
     <row r="12">
@@ -6933,19 +6933,19 @@
         <v>37947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24316</v>
+        <v>26107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52076</v>
+        <v>54558</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3201132909912959</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2051283767482999</v>
+        <v>0.2202321800180285</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4393079927275286</v>
+        <v>0.4602438874785322</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -6954,19 +6954,19 @@
         <v>26948</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18482</v>
+        <v>19311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37547</v>
+        <v>37864</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2879679812341694</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.197500676459614</v>
+        <v>0.2063591456854872</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.401233351365338</v>
+        <v>0.4046240110362205</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -6975,19 +6975,19 @@
         <v>64894</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47487</v>
+        <v>49776</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82124</v>
+        <v>83276</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3059319926868947</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2238693028780006</v>
+        <v>0.234661651948277</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3871566104478211</v>
+        <v>0.3925889695429026</v>
       </c>
     </row>
     <row r="13">
@@ -7004,19 +7004,19 @@
         <v>12851</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5742</v>
+        <v>6015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23216</v>
+        <v>23753</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1084083370204238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04844169601284962</v>
+        <v>0.0507449847134075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1958506305794109</v>
+        <v>0.2003800462052012</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -7025,19 +7025,19 @@
         <v>11226</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6113</v>
+        <v>6360</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19512</v>
+        <v>19064</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1199623027291696</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0653261127967875</v>
+        <v>0.06796767509021565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2085087000452304</v>
+        <v>0.2037185300131906</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -7046,19 +7046,19 @@
         <v>24077</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14996</v>
+        <v>14812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37441</v>
+        <v>36579</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.113505510933275</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0706942171639237</v>
+        <v>0.06982981971693351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1765077942318821</v>
+        <v>0.1724426029679749</v>
       </c>
     </row>
     <row r="14">
@@ -7075,19 +7075,19 @@
         <v>15100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6870</v>
+        <v>6518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28131</v>
+        <v>28428</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1273838999493208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05795513354564668</v>
+        <v>0.05498487903158301</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2373096710122315</v>
+        <v>0.2398195719737795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -7096,19 +7096,19 @@
         <v>10155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5181</v>
+        <v>5150</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17315</v>
+        <v>16739</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1085159392650808</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05536718758731221</v>
+        <v>0.05503564846736286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1850342265624997</v>
+        <v>0.1788761529370664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -7117,19 +7117,19 @@
         <v>25255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15387</v>
+        <v>15697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41638</v>
+        <v>38981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1190600673006216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0725384646446295</v>
+        <v>0.07400142538457802</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.19629321145334</v>
+        <v>0.1837677329729643</v>
       </c>
     </row>
     <row r="15">
@@ -7221,19 +7221,19 @@
         <v>40281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29572</v>
+        <v>29812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51423</v>
+        <v>52911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3327860053560964</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2443131352500021</v>
+        <v>0.2462936537011135</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.424832279174191</v>
+        <v>0.4371296621390274</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -7242,19 +7242,19 @@
         <v>29161</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21241</v>
+        <v>22445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37007</v>
+        <v>37772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2780308391429321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2025147484076397</v>
+        <v>0.2140001925268613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3528367425603524</v>
+        <v>0.360128363350656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -7263,19 +7263,19 @@
         <v>69442</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57420</v>
+        <v>56819</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85319</v>
+        <v>84259</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3073662537100881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.25415230778606</v>
+        <v>0.25149284221928</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3776390049161738</v>
+        <v>0.3729488267204026</v>
       </c>
     </row>
     <row r="17">
@@ -7292,19 +7292,19 @@
         <v>27947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19426</v>
+        <v>18607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39995</v>
+        <v>38134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2308830695042879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1604890974303619</v>
+        <v>0.1537249129703158</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3304225057359098</v>
+        <v>0.3150461745820307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -7313,19 +7313,19 @@
         <v>15258</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9787</v>
+        <v>9829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21947</v>
+        <v>22272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1454713050648683</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09330711998738439</v>
+        <v>0.09371405669814786</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2092495149209879</v>
+        <v>0.2123447753712338</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -7334,19 +7334,19 @@
         <v>43204</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31785</v>
+        <v>32628</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56571</v>
+        <v>56538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1912311792836456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1406887436111794</v>
+        <v>0.1444200087404146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2503952732720254</v>
+        <v>0.2502497144766174</v>
       </c>
     </row>
     <row r="18">
@@ -7363,19 +7363,19 @@
         <v>26942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18164</v>
+        <v>18690</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38078</v>
+        <v>37487</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2225867331490779</v>
+        <v>0.2225867331490778</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1500634368932846</v>
+        <v>0.1544078781797538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3145884062106844</v>
+        <v>0.309703737257856</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -7384,19 +7384,19 @@
         <v>33448</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26450</v>
+        <v>25085</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41902</v>
+        <v>41844</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3189050592080868</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2521851136735833</v>
+        <v>0.2391640393785652</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3995058689745026</v>
+        <v>0.398951083044315</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>70</v>
@@ -7405,19 +7405,19 @@
         <v>60391</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47950</v>
+        <v>48716</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74119</v>
+        <v>75358</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2673019280194135</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2122363047347122</v>
+        <v>0.2156289153069838</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.328064121258866</v>
+        <v>0.3335509144772099</v>
       </c>
     </row>
     <row r="19">
@@ -7434,19 +7434,19 @@
         <v>15102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8959</v>
+        <v>8559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24263</v>
+        <v>24357</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1247639550908636</v>
+        <v>0.1247639550908635</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07401657317720423</v>
+        <v>0.07071053769230759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2004490167424731</v>
+        <v>0.2012252854759162</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -7455,19 +7455,19 @@
         <v>15717</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10097</v>
+        <v>10424</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22218</v>
+        <v>22457</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1498518136675855</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09626891517499771</v>
+        <v>0.09938226766291829</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2118324304390993</v>
+        <v>0.2141071832857806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -7476,19 +7476,19 @@
         <v>30819</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22279</v>
+        <v>22138</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41253</v>
+        <v>42117</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1364108402791534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0986114678697937</v>
+        <v>0.09798536698281597</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1825952590387187</v>
+        <v>0.1864164137141001</v>
       </c>
     </row>
     <row r="20">
@@ -7505,19 +7505,19 @@
         <v>10770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4765</v>
+        <v>4527</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21195</v>
+        <v>19920</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08898023689967428</v>
+        <v>0.08898023689967427</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03936774813748575</v>
+        <v>0.03740356742655829</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1751061892617606</v>
+        <v>0.1645723949169574</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -7526,19 +7526,19 @@
         <v>11300</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6615</v>
+        <v>6426</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17883</v>
+        <v>17411</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1077409829165274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06306858130670755</v>
+        <v>0.06126754823529673</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1705038948266473</v>
+        <v>0.1659964221319644</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -7547,19 +7547,19 @@
         <v>22071</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13947</v>
+        <v>14616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32468</v>
+        <v>33373</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09768979870769946</v>
+        <v>0.09768979870769944</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06173052999147256</v>
+        <v>0.06469367682593316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1437118163796201</v>
+        <v>0.1477145054426657</v>
       </c>
     </row>
     <row r="21">
@@ -7651,19 +7651,19 @@
         <v>50449</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39816</v>
+        <v>39013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62318</v>
+        <v>62205</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3677786072609923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2902626320122478</v>
+        <v>0.2844107130467468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4543091439346462</v>
+        <v>0.4534790123509709</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -7672,19 +7672,19 @@
         <v>36893</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29102</v>
+        <v>29441</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44868</v>
+        <v>44865</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3038468850166163</v>
+        <v>0.3038468850166164</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2396776457378886</v>
+        <v>0.2424711562393706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3695271370702116</v>
+        <v>0.3695008695404167</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -7693,19 +7693,19 @@
         <v>87342</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72809</v>
+        <v>72744</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101050</v>
+        <v>101093</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3377598765549452</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2815578136562162</v>
+        <v>0.2813063193457289</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3907683228163397</v>
+        <v>0.3909369051906632</v>
       </c>
     </row>
     <row r="23">
@@ -7722,19 +7722,19 @@
         <v>21641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13667</v>
+        <v>14420</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32051</v>
+        <v>32876</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1577690038095053</v>
+        <v>0.1577690038095054</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09963438732689038</v>
+        <v>0.1051203196205586</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2336536393388626</v>
+        <v>0.2396699270569926</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -7743,19 +7743,19 @@
         <v>21298</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15016</v>
+        <v>15183</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28378</v>
+        <v>28430</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1754091996304212</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1236701308701161</v>
+        <v>0.1250480973025408</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2337207051893404</v>
+        <v>0.2341482599563619</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>54</v>
@@ -7764,19 +7764,19 @@
         <v>42940</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33043</v>
+        <v>33037</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>53421</v>
+        <v>55549</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1660518447742127</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1277791557258523</v>
+        <v>0.1277567555652192</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.206583859828858</v>
+        <v>0.2148145264972546</v>
       </c>
     </row>
     <row r="24">
@@ -7793,19 +7793,19 @@
         <v>36972</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26685</v>
+        <v>26849</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48099</v>
+        <v>47497</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2695314537330909</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1945356439940897</v>
+        <v>0.1957291860570547</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3506489697834157</v>
+        <v>0.3462620296359223</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -7814,19 +7814,19 @@
         <v>35892</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28700</v>
+        <v>28447</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44466</v>
+        <v>43914</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2955995554433083</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2363698257288141</v>
+        <v>0.234290049564683</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3662159930374944</v>
+        <v>0.3616738565631497</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>96</v>
@@ -7835,19 +7835,19 @@
         <v>72864</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61039</v>
+        <v>59309</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86698</v>
+        <v>86057</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2817715639285534</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2360446636938191</v>
+        <v>0.2293524278016181</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3352689374246929</v>
+        <v>0.3327891688728923</v>
       </c>
     </row>
     <row r="25">
@@ -7864,19 +7864,19 @@
         <v>17886</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11209</v>
+        <v>11082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26335</v>
+        <v>27088</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1303920934119843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08171187595402345</v>
+        <v>0.08078919038786439</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.191983317406189</v>
+        <v>0.1974723209825058</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -7885,19 +7885,19 @@
         <v>17298</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11466</v>
+        <v>11520</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24218</v>
+        <v>23193</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1424629309331787</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09443527488388448</v>
+        <v>0.09488105807553902</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1994555280526162</v>
+        <v>0.1910147720767622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -7906,19 +7906,19 @@
         <v>35184</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26255</v>
+        <v>26130</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46327</v>
+        <v>46571</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1360598778580236</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1015300680840008</v>
+        <v>0.1010465511014014</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.179149240539097</v>
+        <v>0.1800946185907958</v>
       </c>
     </row>
     <row r="26">
@@ -7935,19 +7935,19 @@
         <v>10223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4914</v>
+        <v>4625</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18664</v>
+        <v>19784</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0745288417844273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03582328095429696</v>
+        <v>0.03371367961100764</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1360656085473557</v>
+        <v>0.1442303927615761</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -7956,19 +7956,19 @@
         <v>10039</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5608</v>
+        <v>5709</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15621</v>
+        <v>15790</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08268142897647543</v>
+        <v>0.08268142897647544</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04618734298019858</v>
+        <v>0.04702044240931526</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1286539432858253</v>
+        <v>0.1300477001277214</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -7977,19 +7977,19 @@
         <v>20262</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12818</v>
+        <v>12935</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30437</v>
+        <v>31131</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07835683688426509</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04957003344681481</v>
+        <v>0.05002082545269358</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.117701234790646</v>
+        <v>0.1203871161959399</v>
       </c>
     </row>
     <row r="27">
@@ -8081,19 +8081,19 @@
         <v>12430</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7079</v>
+        <v>7231</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19455</v>
+        <v>19812</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1812071450243573</v>
+        <v>0.1812071450243574</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1032017834957211</v>
+        <v>0.1054151606899365</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2836097368865907</v>
+        <v>0.2888104460214684</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -8102,19 +8102,19 @@
         <v>12239</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8317</v>
+        <v>7817</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17640</v>
+        <v>17258</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2981643021794171</v>
+        <v>0.298164302179417</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2026191840026696</v>
+        <v>0.1904324689010603</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4297382948316252</v>
+        <v>0.4204353843940073</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>32</v>
@@ -8123,19 +8123,19 @@
         <v>24670</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17506</v>
+        <v>17443</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31789</v>
+        <v>32881</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2249922845606751</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1596561944024493</v>
+        <v>0.1590803729142451</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2899223843779316</v>
+        <v>0.2998854486176667</v>
       </c>
     </row>
     <row r="29">
@@ -8152,19 +8152,19 @@
         <v>15212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9126</v>
+        <v>9124</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24024</v>
+        <v>23008</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.221757257761586</v>
+        <v>0.2217572577615861</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1330319747809</v>
+        <v>0.1330014666760521</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3502178068577598</v>
+        <v>0.3354021215469601</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -8173,19 +8173,19 @@
         <v>7027</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3922</v>
+        <v>3971</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11262</v>
+        <v>11541</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1711825097533158</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09554175125811355</v>
+        <v>0.09673845385989589</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.274370177602155</v>
+        <v>0.2811474010966367</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -8194,19 +8194,19 @@
         <v>22239</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15135</v>
+        <v>15380</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30460</v>
+        <v>30413</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2028236375161796</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1380368572541147</v>
+        <v>0.140267084567812</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2778067807028229</v>
+        <v>0.2773702100878607</v>
       </c>
     </row>
     <row r="30">
@@ -8223,19 +8223,19 @@
         <v>26259</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18077</v>
+        <v>18522</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33204</v>
+        <v>34086</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3828018002504808</v>
+        <v>0.3828018002504809</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2635204820674292</v>
+        <v>0.2700055409767457</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4840431822352431</v>
+        <v>0.4969006061591178</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -8244,19 +8244,19 @@
         <v>14029</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9523</v>
+        <v>9625</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18792</v>
+        <v>19135</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3417659686253791</v>
+        <v>0.3417659686253789</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2320018387727541</v>
+        <v>0.2344815914444225</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4577963096635963</v>
+        <v>0.4661532555396051</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>52</v>
@@ -8265,19 +8265,19 @@
         <v>40288</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31813</v>
+        <v>31093</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49264</v>
+        <v>48983</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3674392550467545</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2901385562597916</v>
+        <v>0.2835777375066357</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4493048116514406</v>
+        <v>0.4467337297163359</v>
       </c>
     </row>
     <row r="31">
@@ -8294,19 +8294,19 @@
         <v>8352</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4327</v>
+        <v>4205</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14154</v>
+        <v>14493</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1217581231372782</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06307224433928324</v>
+        <v>0.06130259683647043</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2063339206151713</v>
+        <v>0.2112717127778845</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -8315,19 +8315,19 @@
         <v>5821</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2583</v>
+        <v>3078</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9882</v>
+        <v>10257</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1417977428955658</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06292477220294916</v>
+        <v>0.07497771600030771</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2407386294252223</v>
+        <v>0.2498826112373294</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -8336,19 +8336,19 @@
         <v>14173</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8714</v>
+        <v>9132</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21048</v>
+        <v>21123</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1292603365008271</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07947531233813736</v>
+        <v>0.08329065459318977</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1919639888607412</v>
+        <v>0.1926456147376656</v>
       </c>
     </row>
     <row r="32">
@@ -8365,19 +8365,19 @@
         <v>6344</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2277</v>
+        <v>2222</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13076</v>
+        <v>12490</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09247567382629768</v>
+        <v>0.09247567382629769</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03318816210643077</v>
+        <v>0.03238528822240838</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1906218686633127</v>
+        <v>0.182081878572944</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -8386,19 +8386,19 @@
         <v>1933</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.04708947654632222</v>
+        <v>0.0470894765463222</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01379375094681313</v>
+        <v>0.01406473193195591</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.12426911273171</v>
+        <v>0.1243544698249828</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -8407,19 +8407,19 @@
         <v>8277</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4274</v>
+        <v>3882</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15403</v>
+        <v>14997</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07548448637556369</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03898195583410494</v>
+        <v>0.0354089450282618</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1404800618696933</v>
+        <v>0.1367778300096272</v>
       </c>
     </row>
     <row r="33">
@@ -8511,19 +8511,19 @@
         <v>142276</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>120984</v>
+        <v>118968</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>165976</v>
+        <v>168831</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.29924081498601</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.254457584393375</v>
+        <v>0.2502188094216274</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3490867797863285</v>
+        <v>0.3550913337379059</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>141</v>
@@ -8532,19 +8532,19 @@
         <v>119808</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>102682</v>
+        <v>103829</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>137164</v>
+        <v>139366</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3079124123418891</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.26389769765424</v>
+        <v>0.2668456858082228</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3525178679345057</v>
+        <v>0.358175816337877</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>254</v>
@@ -8553,19 +8553,19 @@
         <v>262085</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>233534</v>
+        <v>232766</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>292448</v>
+        <v>292763</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3031435275554646</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2701202266807936</v>
+        <v>0.2692322316404966</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3382632873283412</v>
+        <v>0.3386283870216325</v>
       </c>
     </row>
     <row r="35">
@@ -8582,19 +8582,19 @@
         <v>94255</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>74242</v>
+        <v>74735</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>116210</v>
+        <v>115500</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1982400516128593</v>
+        <v>0.1982400516128592</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1561491131541023</v>
+        <v>0.1571848252478469</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2444172828533892</v>
+        <v>0.2429232844411998</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>84</v>
@@ -8603,19 +8603,19 @@
         <v>62111</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>50668</v>
+        <v>49522</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>76331</v>
+        <v>75137</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1596282810666628</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1302192659183637</v>
+        <v>0.1272732912903702</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1961736440742322</v>
+        <v>0.193105613162719</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>159</v>
@@ -8624,19 +8624,19 @@
         <v>156366</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>133694</v>
+        <v>135394</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>181712</v>
+        <v>180592</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1808625563192874</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1546384789129193</v>
+        <v>0.1566054654266192</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2101799668069031</v>
+        <v>0.2088846056002323</v>
       </c>
     </row>
     <row r="36">
@@ -8653,19 +8653,19 @@
         <v>134518</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>112983</v>
+        <v>112124</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>158766</v>
+        <v>157462</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2829231796819452</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2376306739517803</v>
+        <v>0.2358234319119155</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3339225031382522</v>
+        <v>0.331180216426799</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>161</v>
@@ -8674,19 +8674,19 @@
         <v>119241</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>104365</v>
+        <v>103427</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>136292</v>
+        <v>136323</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3064530022467322</v>
+        <v>0.3064530022467323</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2682210756540928</v>
+        <v>0.2658116901394134</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3502763382773488</v>
+        <v>0.3503552313376103</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>278</v>
@@ -8695,19 +8695,19 @@
         <v>253758</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>227475</v>
+        <v>226186</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>281443</v>
+        <v>281279</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2935129396202769</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2631118289717337</v>
+        <v>0.2616210752979445</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3255348503787014</v>
+        <v>0.325345340998527</v>
       </c>
     </row>
     <row r="37">
@@ -8724,19 +8724,19 @@
         <v>61971</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>46035</v>
+        <v>46915</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78395</v>
+        <v>79954</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1303398813522864</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09682336217925942</v>
+        <v>0.09867370975545638</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1648844415411847</v>
+        <v>0.1681618189275318</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -8745,19 +8745,19 @@
         <v>54511</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>41545</v>
+        <v>43934</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>67611</v>
+        <v>69129</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1400965894075108</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1067728411299582</v>
+        <v>0.1129114802466359</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1737632763866754</v>
+        <v>0.1776648725708043</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>125</v>
@@ -8766,19 +8766,19 @@
         <v>116482</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>95647</v>
+        <v>95989</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>138626</v>
+        <v>136871</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1347309555224689</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1106316216311969</v>
+        <v>0.1110274872322884</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1603435505739638</v>
+        <v>0.1583134582877245</v>
       </c>
     </row>
     <row r="38">
@@ -8795,19 +8795,19 @@
         <v>42437</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>29671</v>
+        <v>28189</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>61446</v>
+        <v>60312</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.08925607236689916</v>
+        <v>0.08925607236689914</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06240483294483101</v>
+        <v>0.0592885343017674</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1292355532077102</v>
+        <v>0.1268516122797647</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>42</v>
@@ -8816,19 +8816,19 @@
         <v>33427</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>24594</v>
+        <v>23917</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>45180</v>
+        <v>44381</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08590971493720519</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06320632997663715</v>
+        <v>0.06146646844917802</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1161134316289215</v>
+        <v>0.1140621215226989</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>72</v>
@@ -8837,19 +8837,19 @@
         <v>75865</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>59770</v>
+        <v>59528</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>97806</v>
+        <v>97575</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.08775002098250222</v>
+        <v>0.0877500209825022</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06913413383775986</v>
+        <v>0.06885365737947684</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1131286505512078</v>
+        <v>0.1128616094540056</v>
       </c>
     </row>
     <row r="39">
